--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P09_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P09_trail3 Features.xlsx
@@ -2844,7 +2844,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2855,29 +2855,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2898,115 +2896,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3023,72 +3011,66 @@
         <v>2.707472489572232e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.4110317712918872</v>
+        <v>9.397453967735812e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.006374028156735</v>
+        <v>4.392242016274558e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>9.397453967735812e-07</v>
+        <v>0.03091255008730441</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.392242016274558e-06</v>
+        <v>0.17549987274823</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.03091255008730441</v>
+        <v>0.03174434901887377</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.17549987274823</v>
+        <v>1.631615794486573</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.03174434901887377</v>
+        <v>1.505527284185902</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.539380790648571</v>
+        <v>4.140453270710868</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.505527284185902</v>
+        <v>4.160221774276707e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.140453270710868</v>
+        <v>10887443.54500228</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.160221774276707e-14</v>
+        <v>1.01906978094419e-05</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>10887443.54500228</v>
+        <v>4.931378244240947</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.01906978094419e-05</v>
+        <v>0.0001723366968088277</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>4.931378244240947</v>
+        <v>9.527363356652666</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001723366968088277</v>
+        <v>1.229704461868397</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.527363356652666</v>
+        <v>0.01564311442414828</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.229704461868397</v>
+        <v>2.667038344346496</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01564311442414828</v>
+        <v>0.9437251135803129</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.667038344346496</v>
+        <v>1.810640014835562</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9437251135803129</v>
+        <v>22</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.810640014835562</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1459244759031907</v>
       </c>
     </row>
@@ -3103,72 +3085,66 @@
         <v>2.669807150703398e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.3861317901340753</v>
+        <v>8.819321404239045e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.9915322519048617</v>
+        <v>4.399586315271141e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>8.819321404239045e-07</v>
+        <v>0.02412757959746881</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.399586315271141e-06</v>
+        <v>0.1736099531001726</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.02412757959746881</v>
+        <v>0.03071702743479566</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1736099531001726</v>
+        <v>1.647631546848456</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.03071702743479566</v>
+        <v>1.540394790783221</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.557223899743279</v>
+        <v>4.12176254999818</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.540394790783221</v>
+        <v>4.198037559965913e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.12176254999818</v>
+        <v>11008591.13373078</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.198037559965913e-14</v>
+        <v>1.016205241042026e-05</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>11008591.13373078</v>
+        <v>5.087563044487221</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.016205241042026e-05</v>
+        <v>0.0001735951914141048</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>5.087563044487221</v>
+        <v>10.75750110006034</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001735951914141048</v>
+        <v>1.105256946992381</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.75750110006034</v>
+        <v>0.0200891004057537</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.105256946992381</v>
+        <v>2.420940400580889</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0200891004057537</v>
+        <v>0.9447557000830437</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.420940400580889</v>
+        <v>1.815430073883256</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9447557000830437</v>
+        <v>17</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.815430073883256</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1556354992270325</v>
       </c>
     </row>
@@ -3183,72 +3159,66 @@
         <v>2.644903612947456e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.3532672030082208</v>
+        <v>8.819321404239045e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.9708909348420982</v>
+        <v>4.40531035815394e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>8.819321404239045e-07</v>
+        <v>0.01920260788722379</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.40531035815394e-06</v>
+        <v>0.1733420475513567</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.01920260788722379</v>
+        <v>0.03041332981255566</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1733420475513567</v>
+        <v>1.633600593689007</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03041332981255566</v>
+        <v>1.493421224926693</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.543940782491068</v>
+        <v>4.122604696076193</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.493421224926693</v>
+        <v>4.196322624853899e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.122604696076193</v>
+        <v>10967911.29190649</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.196322624853899e-14</v>
+        <v>1.01592867222117e-05</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>10967911.29190649</v>
+        <v>5.04796957919516</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.01592867222117e-05</v>
+        <v>0.0001676188450833298</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>5.04796957919516</v>
+        <v>10.12308038292328</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001676188450833298</v>
+        <v>1.134183435367143</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.12308038292328</v>
+        <v>0.017177035562212</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.134183435367143</v>
+        <v>2.541748506524727</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.017177035562212</v>
+        <v>0.9432300956976006</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.541748506524727</v>
+        <v>1.827931866916434</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9432300956976006</v>
+        <v>15</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.827931866916434</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1553438408397076</v>
       </c>
     </row>
@@ -3263,72 +3233,66 @@
         <v>2.627239174060641e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.3213093724276621</v>
+        <v>8.819321404239045e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.9505577972133992</v>
+        <v>4.409806128868599e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>8.819321404239045e-07</v>
+        <v>0.01492128755813015</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.409806128868599e-06</v>
+        <v>0.1738560114461946</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.01492128755813015</v>
+        <v>0.03044626490037877</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1738560114461946</v>
+        <v>1.632175373432274</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.03044626490037877</v>
+        <v>1.462868880879379</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.544620878077413</v>
+        <v>4.170641564562339</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.462868880879379</v>
+        <v>4.100213994969312e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.170641564562339</v>
+        <v>11272541.63264898</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.100213994969312e-14</v>
+        <v>9.891448384431761e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>11272541.63264898</v>
+        <v>5.210149913076478</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>9.891448384431761e-06</v>
+        <v>0.0001642897562544455</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>5.210149913076478</v>
+        <v>8.848207653816672</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001642897562544455</v>
+        <v>1.270946711741748</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.848207653816672</v>
+        <v>0.01286237294713923</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.270946711741748</v>
+        <v>2.718048886506559</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01286237294713923</v>
+        <v>0.9430334403639352</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.718048886506559</v>
+        <v>1.828232142077587</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9430334403639352</v>
+        <v>15</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.828232142077587</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1520757469288239</v>
       </c>
     </row>
@@ -3343,72 +3307,66 @@
         <v>2.614374075621105e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.2952472834575083</v>
+        <v>8.819321404239045e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.9316961233603767</v>
+        <v>4.413142318486154e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>8.819321404239045e-07</v>
+        <v>0.01050114466646035</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.413142318486154e-06</v>
+        <v>0.1748502901831709</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.01050114466646035</v>
+        <v>0.03068047334852981</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1748502901831709</v>
+        <v>1.642749447007958</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03068047334852981</v>
+        <v>1.433785831192543</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.557062619652831</v>
+        <v>4.352998450280369</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.433785831192543</v>
+        <v>3.763875354128329e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.352998450280369</v>
+        <v>12578753.97227701</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.763875354128329e-14</v>
+        <v>8.927042784428028e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>12578753.97227701</v>
+        <v>5.955393717279971</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>8.927042784428028e-06</v>
+        <v>0.0001670852352427095</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>5.955393717279971</v>
+        <v>8.133296998108191</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001670852352427095</v>
+        <v>1.450044771258026</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.133296998108191</v>
+        <v>0.01105277520555839</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.450044771258026</v>
+        <v>2.788438629791079</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01105277520555839</v>
+        <v>0.9430381785038712</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.788438629791079</v>
+        <v>1.818159151858771</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9430381785038712</v>
+        <v>15</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.818159151858771</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.152913135688591</v>
       </c>
     </row>
@@ -3423,72 +3381,66 @@
         <v>2.605819489264171e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.2779003132339123</v>
+        <v>8.819321404239045e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.9168319832263769</v>
+        <v>4.415285182977603e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>8.819321404239045e-07</v>
+        <v>0.005869664962252275</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.415285182977603e-06</v>
+        <v>0.1758724210494303</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.005869664962252275</v>
+        <v>0.03096284913596945</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1758724210494303</v>
+        <v>1.643085578403161</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03096284913596945</v>
+        <v>1.40169183263012</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.562089770253724</v>
+        <v>4.84357808650288</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.40169183263012</v>
+        <v>3.040042439494401e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.84357808650288</v>
+        <v>15576399.00997156</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.040042439494401e-14</v>
+        <v>7.210696566488404e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>15576399.00997156</v>
+        <v>7.375878834468804</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>7.210696566488404e-06</v>
+        <v>0.0001628280103097803</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>7.375878834468804</v>
+        <v>8.693836500005661</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001628280103097803</v>
+        <v>1.295485717149608</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.693836500005661</v>
+        <v>0.01230699581231011</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.295485717149608</v>
+        <v>2.75462208076784</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01230699581231011</v>
+        <v>0.9415272704295881</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.75462208076784</v>
+        <v>1.81124030124852</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9415272704295881</v>
+        <v>15</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.81124030124852</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1669535404890613</v>
       </c>
     </row>
@@ -3503,72 +3455,66 @@
         <v>2.602153384068648e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.2706645841972724</v>
+        <v>8.819321404239045e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.9098623926133671</v>
+        <v>4.41617046612611e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>8.819321404239045e-07</v>
+        <v>0.0008411287163512241</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.41617046612611e-06</v>
+        <v>0.176346708915596</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.0008411287163512241</v>
+        <v>0.03109555351517051</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.176346708915596</v>
+        <v>1.670545906198575</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.03109555351517051</v>
+        <v>1.46133134988058</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.595022903926917</v>
+        <v>4.374321106345189</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.46133134988058</v>
+        <v>2.144538491027885e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.374321106345189</v>
+        <v>20939162.81638069</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.144538491027885e-14</v>
+        <v>5.376738255389038e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>20939162.81638069</v>
+        <v>9.402697691874128</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>5.376738255389038e-06</v>
+        <v>0.0001537965950121093</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>9.402697691874128</v>
+        <v>10.42597146639523</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001537965950121093</v>
+        <v>1.042841396980777</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.42597146639523</v>
+        <v>0.01671782537539828</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.042841396980777</v>
+        <v>2.614826109316107</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01671782537539828</v>
+        <v>0.9454445691209014</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.614826109316107</v>
+        <v>1.807054723430892</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9454445691209014</v>
+        <v>34</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.807054723430892</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.195901624287145</v>
       </c>
     </row>
@@ -3583,72 +3529,66 @@
         <v>2.604197014964403e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.2748432635818289</v>
+        <v>8.819321404239045e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.9137618899182778</v>
+        <v>4.415666760350416e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>8.819321404239045e-07</v>
+        <v>-0.004829867095432704</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.415666760350416e-06</v>
+        <v>0.1755660394046474</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.004829867095432704</v>
+        <v>0.03084232652450059</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1755660394046474</v>
+        <v>1.743277753643307</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.03084232652450059</v>
+        <v>1.711286551825387</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.679139417433525</v>
+        <v>3.90613088786532</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.711286551825387</v>
+        <v>2.137500181476219e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.90613088786532</v>
+        <v>20639999.84308596</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.137500181476219e-14</v>
+        <v>5.591501929659294e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>20639999.84308596</v>
+        <v>9.105955834651427</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>5.591501929659294e-06</v>
+        <v>0.0001342477318018302</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>9.105955834651427</v>
+        <v>9.933143160965454</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001342477318018302</v>
+        <v>1.348322394121832</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.933143160965454</v>
+        <v>0.01324586566573526</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.348322394121832</v>
+        <v>3.046227902931747</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01324586566573526</v>
+        <v>0.9513070156686384</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.046227902931747</v>
+        <v>1.735459873626312</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9513070156686384</v>
+        <v>33</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.735459873626312</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2232155618008517</v>
       </c>
     </row>
@@ -3663,72 +3603,66 @@
         <v>2.611856015404707e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.2923898683645007</v>
+        <v>8.819321404239045e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.9268148790485293</v>
+        <v>4.413593795284423e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>8.819321404239045e-07</v>
+        <v>-0.01113217555782453</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>4.413593795284423e-06</v>
+        <v>0.173102830891674</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.01113217555782453</v>
+        <v>0.03008301253813158</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.173102830891674</v>
+        <v>1.792579857097664</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.03008301253813158</v>
+        <v>1.49125673170115</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.740410606011611</v>
+        <v>4.681518263250098</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.49125673170115</v>
+        <v>1.449039703417547e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.681518263250098</v>
+        <v>29487515.67989899</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.449039703417547e-14</v>
+        <v>3.989618793787834e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>29487515.67989899</v>
+        <v>12.59959701489614</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>3.989618793787834e-06</v>
+        <v>0.0001411618979954226</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>12.59959701489614</v>
+        <v>8.228094738393681</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001411618979954226</v>
+        <v>2.083069042520679</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.228094738393681</v>
+        <v>0.00955687831048403</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>2.083069042520679</v>
+        <v>3.250492055699683</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.00955687831048403</v>
+        <v>0.9550468036749266</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.250492055699683</v>
+        <v>1.682819466951094</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9550468036749266</v>
+        <v>33</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.682819466951094</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2498933924207898</v>
       </c>
     </row>
@@ -3743,72 +3677,66 @@
         <v>2.623239524453012e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.3249926634416031</v>
+        <v>8.819321404239045e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.939893418914485</v>
+        <v>4.409800768328165e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>8.819321404239045e-07</v>
+        <v>-0.01787071336937161</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>4.409800768328165e-06</v>
+        <v>0.1690766285500192</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.01787071336937161</v>
+        <v>0.02890007839229564</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1690766285500192</v>
+        <v>1.807383019746664</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.02890007839229564</v>
+        <v>1.59325304508239</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.766978038328216</v>
+        <v>5.356616536542092</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.59325304508239</v>
+        <v>5.465464308001692e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>5.356616536542092</v>
+        <v>75538313.93339381</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>5.465464308001692e-15</v>
+        <v>1.559062369749211e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>75538313.93339381</v>
+        <v>31.18614086351084</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.559062369749211e-06</v>
+        <v>0.0001423190957501484</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>31.18614086351084</v>
+        <v>7.482140221467718</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001423190957501484</v>
+        <v>1.621177802783867</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.482140221467718</v>
+        <v>0.007967367718743045</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.621177802783867</v>
+        <v>3.126213692785236</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.007967367718743045</v>
+        <v>0.9558779563200495</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.126213692785236</v>
+        <v>1.660200558284453</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9558779563200495</v>
+        <v>33</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.660200558284453</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2606153276129812</v>
       </c>
     </row>
@@ -3823,72 +3751,66 @@
         <v>2.634953342721608e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.3722747299093805</v>
+        <v>8.819321404239045e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.9390293054780927</v>
+        <v>4.40423105430508e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>8.819321404239045e-07</v>
+        <v>-0.02436981145075077</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.40423105430508e-06</v>
+        <v>0.1646591824003525</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.02436981145075077</v>
+        <v>0.02770125615410741</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1646591824003525</v>
+        <v>1.838208786468991</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.02770125615410741</v>
+        <v>1.824606532584412</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.813838557940859</v>
+        <v>4.237149329134311</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.824606532584412</v>
+        <v>2.59796404849774e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.237149329134311</v>
+        <v>157673527.8085965</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.59796404849774e-15</v>
+        <v>7.520118210507593e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>157673527.8085965</v>
+        <v>64.58783189524834</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>7.520118210507593e-07</v>
+        <v>0.000145994782229329</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>64.58783189524834</v>
+        <v>8.604499427348472</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.000145994782229329</v>
+        <v>1.279217573468655</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.604499427348472</v>
+        <v>0.01080907560747655</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.279217573468655</v>
+        <v>2.925689131615319</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01080907560747655</v>
+        <v>0.9579891780470685</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.925689131615319</v>
+        <v>1.585456794998324</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9579891780470685</v>
+        <v>33</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.585456794998324</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2850036475277253</v>
       </c>
     </row>
@@ -3903,72 +3825,66 @@
         <v>2.643112504251728e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.4310085826647806</v>
+        <v>8.819321404239045e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.9120034058710056</v>
+        <v>4.396970161841419e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>8.819321404239045e-07</v>
+        <v>-0.03067056525700123</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.396970161841419e-06</v>
+        <v>0.1599287979891837</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.03067056525700123</v>
+        <v>0.0265117367845211</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1599287979891837</v>
+        <v>1.854602858149845</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.0265117367845211</v>
+        <v>2.257205564287375</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.842067530894425</v>
+        <v>3.759910952782002</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.257205564287375</v>
+        <v>2.384933238960228e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.759910952782002</v>
+        <v>171938630.287125</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.384933238960228e-15</v>
+        <v>6.91789800390461e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>171938630.287125</v>
+        <v>70.50552516580751</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>6.91789800390461e-07</v>
+        <v>0.0001420581826084636</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>70.50552516580751</v>
+        <v>9.106312091941303</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001420581826084636</v>
+        <v>1.264794436361972</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.106312091941303</v>
+        <v>0.01178016341619611</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.264794436361972</v>
+        <v>2.851673038827322</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01178016341619611</v>
+        <v>0.9584302347371237</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.851673038827322</v>
+        <v>1.504293378526707</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9584302347371237</v>
+        <v>33</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.504293378526707</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.3167301894808166</v>
       </c>
     </row>
@@ -3983,72 +3899,66 @@
         <v>2.64189304359849e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.4978054069964712</v>
+        <v>8.819321404239045e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.8472760575472842</v>
+        <v>4.38796637938891e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>8.819321404239045e-07</v>
+        <v>-0.03748614049760356</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.38796637938891e-06</v>
+        <v>0.1537275557121723</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.03748614049760356</v>
+        <v>0.02502996547130076</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1537275557121723</v>
+        <v>1.856488014514913</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.02502996547130076</v>
+        <v>2.242383492187098</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.850008630966547</v>
+        <v>3.605032542353163</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.242383492187098</v>
+        <v>2.642549687598409e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.605032542353163</v>
+        <v>154566605.3777696</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.642549687598409e-15</v>
+        <v>7.692940633868601e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>154566605.3777696</v>
+        <v>63.13271988172375</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>7.692940633868601e-07</v>
+        <v>0.0001313092299868906</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>63.13271988172375</v>
+        <v>8.460832772426516</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001313092299868906</v>
+        <v>1.288156619811279</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.460832772426516</v>
+        <v>0.009399861989940864</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.288156619811279</v>
+        <v>2.977934092648896</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.009399861989940864</v>
+        <v>0.9591961245948994</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.977934092648896</v>
+        <v>1.514925445770817</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9591961245948994</v>
+        <v>27</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.514925445770817</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.3415442392464295</v>
       </c>
     </row>
@@ -4063,72 +3973,66 @@
         <v>2.623036950147819e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.5657884644121717</v>
+        <v>8.819321404239045e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.7424256095776878</v>
+        <v>4.377155802691643e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>8.819321404239045e-07</v>
+        <v>-0.0445199371690868</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.377155802691643e-06</v>
+        <v>0.1470519669582508</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.0445199371690868</v>
+        <v>0.02359979346368059</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1470519669582508</v>
+        <v>1.865181310190727</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.02359979346368059</v>
+        <v>1.950878536101693</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.86507731364918</v>
+        <v>3.970181454329174</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.950878536101693</v>
+        <v>2.537317452201721e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.970181454329174</v>
+        <v>162021540.3454082</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.537317452201721e-15</v>
+        <v>7.368071872727593e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>162021540.3454082</v>
+        <v>66.60706851382612</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>7.368071872727593e-07</v>
+        <v>0.0001292063414585775</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>66.60706851382612</v>
+        <v>8.033234028033755</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001292063414585775</v>
+        <v>1.301903597175986</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.033234028033755</v>
+        <v>0.008338053316619897</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.301903597175986</v>
+        <v>3.084294286049455</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.008338053316619897</v>
+        <v>0.9584360277299423</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.084294286049455</v>
+        <v>1.513595297796356</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9584360277299423</v>
+        <v>27</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.513595297796356</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.356184427984462</v>
       </c>
     </row>
@@ -4143,72 +4047,66 @@
         <v>2.579872512010527e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.623103433849391</v>
+        <v>8.819321404239045e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.6204643861180754</v>
+        <v>4.36474753219473e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>8.819321404239045e-07</v>
+        <v>-0.05048720025008552</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.36474753219473e-06</v>
+        <v>0.1436563967349157</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.05048720025008552</v>
+        <v>0.02318339796331572</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1436563967349157</v>
+        <v>1.877441895645102</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.02318339796331572</v>
+        <v>2.140961251642139</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.882279103817659</v>
+        <v>4.325844499129158</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.140961251642139</v>
+        <v>2.68554225872383e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.325844499129158</v>
+        <v>154418042.2572643</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.68554225872383e-15</v>
+        <v>7.771467161031099e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>154418042.2572643</v>
+        <v>64.03657193698436</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>7.771467161031099e-07</v>
+        <v>0.0001478065191766083</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>64.03657193698436</v>
+        <v>8.664109565204882</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001478065191766083</v>
+        <v>1.315988899262785</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.664109565204882</v>
+        <v>0.01109536160934503</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.315988899262785</v>
+        <v>3.027805989541894</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01109536160934503</v>
+        <v>0.9597015486575532</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.027805989541894</v>
+        <v>1.455360829958832</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9597015486575532</v>
+        <v>27</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.455360829958832</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.361530836874576</v>
       </c>
     </row>
@@ -4223,72 +4121,66 @@
         <v>2.51193267003282e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.659610243721099</v>
+        <v>8.819321404239045e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.5218533114457546</v>
+        <v>4.351294237789532e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>8.819321404239045e-07</v>
+        <v>-0.05487500939652368</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.351294237789532e-06</v>
+        <v>0.1446186851089358</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.05487500939652368</v>
+        <v>0.02392503609149357</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1446186851089358</v>
+        <v>1.883535158212502</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.02392503609149357</v>
+        <v>1.964750328188169</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.888438270785024</v>
+        <v>4.266394964095127</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.964750328188169</v>
+        <v>3.258628857685109e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.266394964095127</v>
+        <v>127344251.5498035</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>3.258628857685109e-15</v>
+        <v>9.426600641471324e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>127344251.5498035</v>
+        <v>52.84374518363367</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>9.426600641471324e-07</v>
+        <v>0.0001824896619565531</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>52.84374518363367</v>
+        <v>10.97100596654554</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001824896619565531</v>
+        <v>1.146358178512574</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>10.97100596654554</v>
+        <v>0.02196499805739787</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.146358178512574</v>
+        <v>2.725484906380495</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.02196499805739787</v>
+        <v>0.9590740547327172</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.725484906380495</v>
+        <v>1.468005364799883</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9590740547327172</v>
+        <v>20</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.468005364799883</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.4277580425454235</v>
       </c>
     </row>
@@ -4303,72 +4195,66 @@
         <v>2.421255338424963e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.6687227470246567</v>
+        <v>8.819321404239045e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.4884380222956151</v>
+        <v>4.33738122148846e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>8.819321404239045e-07</v>
+        <v>-0.05744582259058232</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>4.33738122148846e-06</v>
+        <v>0.1495597925848708</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.05744582259058232</v>
+        <v>0.02566825327636348</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1495597925848708</v>
+        <v>1.880433772696028</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.02566825327636348</v>
+        <v>1.918819966731036</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.889990334070151</v>
+        <v>4.202244987924797</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.918819966731036</v>
+        <v>3.955347019999024e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.202244987924797</v>
+        <v>101822171.0111755</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>3.955347019999024e-15</v>
+        <v>1.177927319815353e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>101822171.0111755</v>
+        <v>41.00806690295175</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.177927319815353e-06</v>
+        <v>0.0002214641598990532</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>41.00806690295175</v>
+        <v>13.46196076150708</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0002214641598990532</v>
+        <v>0.9807684878149358</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>13.46196076150708</v>
+        <v>0.04013470674073129</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>0.9807684878149358</v>
+        <v>2.32641881082521</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.04013470674073129</v>
+        <v>0.9565729834399029</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.32641881082521</v>
+        <v>1.490763666238495</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9565729834399029</v>
+        <v>20</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.490763666238495</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.5496958159848673</v>
       </c>
     </row>
@@ -4383,72 +4269,66 @@
         <v>2.314832801604049e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.6531760482387153</v>
+        <v>8.693260003768015e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.5351919669081431</v>
+        <v>4.323723717456582e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>8.693260003768015e-07</v>
+        <v>-0.057377885086632</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>4.323723717456582e-06</v>
+        <v>0.1578880348253389</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.057377885086632</v>
+        <v>0.0282191515236517</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1578880348253389</v>
+        <v>1.903201869825596</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.0282191515236517</v>
+        <v>1.736096114089256</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.922325827375416</v>
+        <v>4.438157178594277</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.736096114089256</v>
+        <v>5.13100575738833e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.438157178594277</v>
+        <v>78064668.67730914</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>5.13100575738833e-15</v>
+        <v>1.541397333675511e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>78064668.67730914</v>
+        <v>31.26882368148372</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.541397333675511e-06</v>
+        <v>0.0002420111489692692</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>31.26882368148372</v>
+        <v>13.68685559181687</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0002420111489692692</v>
+        <v>1.042886030882644</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>13.68685559181687</v>
+        <v>0.04533595240647364</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.042886030882644</v>
+        <v>2.417319431909784</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.04533595240647364</v>
+        <v>0.9584978228512624</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.417319431909784</v>
+        <v>1.314670971929455</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9584978228512624</v>
+        <v>19</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.314670971929455</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.6500831278154596</v>
       </c>
     </row>
@@ -4463,72 +4343,66 @@
         <v>2.20073499781338e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.6221502194398231</v>
+        <v>8.35974245195589e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.6421713306734733</v>
+        <v>4.311036505175878e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>8.35974245195589e-07</v>
+        <v>-0.05451121613968777</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>4.311036505175878e-06</v>
+        <v>0.1689208028803601</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.05451121613968777</v>
+        <v>0.03150100875962633</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1689208028803601</v>
+        <v>1.775547314738377</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.03150100875962633</v>
+        <v>1.394915039240356</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.774040979144878</v>
+        <v>13.76310937427869</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.394915039240356</v>
+        <v>7.279954496819542e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>13.76310937427869</v>
+        <v>328064055.5088145</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>7.279954496819542e-15</v>
+        <v>3.245276198049116e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>328064055.5088145</v>
+        <v>783.5125611565476</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>3.245276198049116e-07</v>
+        <v>0.0002456841596059837</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>783.5125611565476</v>
+        <v>14.87928334981545</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0002456841596059837</v>
+        <v>0.951624571327787</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>14.87928334981545</v>
+        <v>0.05439277108359734</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>0.951624571327787</v>
+        <v>2.361605488258801</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.05439277108359734</v>
+        <v>0.957854071644187</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.361605488258801</v>
+        <v>0.8014798690517448</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.957854071644187</v>
+        <v>20</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.8014798690517448</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.8284047697798127</v>
       </c>
     </row>
@@ -4543,72 +4417,66 @@
         <v>2.086152683785521e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.582040715309028</v>
+        <v>7.922727351775219e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.7814859839537576</v>
+        <v>4.299726002738238e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>7.922727351775219e-07</v>
+        <v>-0.0510715852735012</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>4.299726002738238e-06</v>
+        <v>0.1795893019959559</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.0510715852735012</v>
+        <v>0.03485643052997781</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1795893019959559</v>
+        <v>1.769122668875506</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.03485643052997781</v>
+        <v>1.399220299734545</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.764147770239646</v>
+        <v>11.93558523363652</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.399220299734545</v>
+        <v>9.679977552341605e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>11.93558523363652</v>
+        <v>246358258.5948873</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>9.679977552341605e-15</v>
+        <v>4.319200905054845e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>246358258.5948873</v>
+        <v>587.5009880720504</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>4.319200905054845e-07</v>
+        <v>0.000222817688417925</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>587.5009880720504</v>
+        <v>10.3636060880722</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.000222817688417925</v>
+        <v>1.658977847249707</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>10.3636060880722</v>
+        <v>0.02393158479263274</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.658977847249707</v>
+        <v>3.507708724025383</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.02393158479263274</v>
+        <v>0.9580587491254853</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.507708724025383</v>
+        <v>1.161516137421152</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9580587491254853</v>
+        <v>20</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.161516137421152</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.889367030991155</v>
       </c>
     </row>
@@ -4623,72 +4491,66 @@
         <v>1.978051074747428e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.5390752840652703</v>
+        <v>7.412365177210072e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.9295792089485286</v>
+        <v>4.289686157565078e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>7.412365177210072e-07</v>
+        <v>-0.04772141742265805</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>4.289686157565078e-06</v>
+        <v>0.1886714837719182</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.04772141742265805</v>
+        <v>0.03786919253266734</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1886714837719182</v>
+        <v>1.765847757054115</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.03786919253266734</v>
+        <v>1.40465116693279</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.758117217167594</v>
+        <v>11.12521723679954</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.40465116693279</v>
+        <v>1.114152879822922e-14</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>11.12521723679954</v>
+        <v>213926998.1562783</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.114152879822922e-14</v>
+        <v>4.973359098530118e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>213926998.1562783</v>
+        <v>509.8893975022156</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>4.973359098530118e-07</v>
+        <v>0.0001107940986055142</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>509.8893975022156</v>
+        <v>8.956664509390013</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001107940986055142</v>
+        <v>1.821432737300717</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>8.956664509390013</v>
+        <v>0.008888106355302237</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.821432737300717</v>
+        <v>4.705655886147973</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.008888106355302237</v>
+        <v>0.9591208754134004</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>4.705655886147973</v>
+        <v>1.133535857706548</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9591208754134004</v>
+        <v>20</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.133535857706548</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>1.364951167216201</v>
       </c>
     </row>
@@ -4703,72 +4565,66 @@
         <v>1.881693190951629e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.5046779615233633</v>
+        <v>6.857403748488771e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.04929082371388</v>
+        <v>4.280817931100124e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>6.857403748488771e-07</v>
+        <v>-0.04421914350187016</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>4.280817931100124e-06</v>
+        <v>0.1962507409178774</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.04421914350187016</v>
+        <v>0.04046416129956427</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1962507409178774</v>
+        <v>1.76411758398626</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.04046416129956427</v>
+        <v>1.408758783535314</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.754940673212576</v>
+        <v>10.71503996561301</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.408758783535314</v>
+        <v>1.201086254069084e-14</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>10.71503996561301</v>
+        <v>198402562.0634328</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.201086254069084e-14</v>
+        <v>5.362436542759579e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>198402562.0634328</v>
+        <v>472.7905080529283</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>5.362436542759579e-07</v>
+        <v>6.837488955311482e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>472.7905080529283</v>
+        <v>8.474139256528298</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>6.837488955311482e-05</v>
+        <v>1.399219945043332</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.474139256528298</v>
+        <v>0.004910071664701186</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.399219945043332</v>
+        <v>5.05547877674508</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.004910071664701186</v>
+        <v>0.9587076463834693</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>5.05547877674508</v>
+        <v>1.157737408047198</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9587076463834693</v>
+        <v>1</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.157737408047198</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>1.640934544590867</v>
       </c>
     </row>
@@ -4783,72 +4639,66 @@
         <v>1.799199921444791e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.4875364200988403</v>
+        <v>6.306205688289458e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.113924045278763</v>
+        <v>4.27300576158403e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>6.306205688289458e-07</v>
+        <v>-0.04070797862379094</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>4.27300576158403e-06</v>
+        <v>0.2026255385503885</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.04070797862379094</v>
+        <v>0.04270824844103851</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.2026255385503885</v>
+        <v>1.762030923838166</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.04270824844103851</v>
+        <v>1.407256293493101</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.748958104185137</v>
+        <v>10.50103171996902</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.407256293493101</v>
+        <v>1.250540745143976e-14</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>10.50103171996902</v>
+        <v>190464996.757962</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.250540745143976e-14</v>
+        <v>5.584888000959226e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>190464996.757962</v>
+        <v>453.6576030313233</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>5.584888000959226e-07</v>
+        <v>6.306122073477196e-05</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>453.6576030313233</v>
+        <v>8.810169506463161</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>6.306122073477196e-05</v>
+        <v>1.254061461550307</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.810169506463161</v>
+        <v>0.00489475436167674</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.254061461550307</v>
+        <v>5.034324832281313</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.00489475436167674</v>
+        <v>0.9590631604404528</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>5.034324832281313</v>
+        <v>1.105215749119167</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9590631604404528</v>
+        <v>1</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.105215749119167</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>1.733996102325098</v>
       </c>
     </row>
@@ -5225,7 +5075,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.535320922993893</v>
+        <v>1.536836875165964</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.694775539624164</v>
@@ -5314,7 +5164,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.539952464688311</v>
+        <v>1.539684571677215</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.734418364700165</v>
@@ -5403,7 +5253,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.527106492283287</v>
+        <v>1.525450768908963</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.572722620991949</v>
@@ -5492,7 +5342,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.5210920232607</v>
+        <v>1.518616434477166</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.92692216937852</v>
@@ -5581,7 +5431,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.530783036313442</v>
+        <v>1.524716695754975</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.518457728916387</v>
@@ -5670,7 +5520,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.56512403068989</v>
+        <v>1.56052628084888</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.638671168505584</v>
@@ -5759,7 +5609,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.558316464487136</v>
+        <v>1.548184927132868</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.395889260595987</v>
@@ -5848,7 +5698,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.564938095976189</v>
+        <v>1.562037775641746</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.957155467095596</v>
@@ -5937,7 +5787,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.57119938293228</v>
+        <v>1.56609116400068</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.795869641571811</v>
@@ -6026,7 +5876,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.564294643393412</v>
+        <v>1.55968429384914</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.987940652955316</v>
@@ -6115,7 +5965,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.564821652768166</v>
+        <v>1.555370953428941</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.627212748886912</v>
@@ -6204,7 +6054,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.568965479381243</v>
+        <v>1.559508011437222</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.731295531712775</v>
@@ -6293,7 +6143,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.573828681251806</v>
+        <v>1.558670472263058</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.911147396761689</v>
@@ -6382,7 +6232,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.570565149274068</v>
+        <v>1.554134956636379</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.740599926971908</v>
@@ -6471,7 +6321,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.595080865086876</v>
+        <v>1.570345544783887</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.886695396700108</v>
@@ -6560,7 +6410,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.59690895703625</v>
+        <v>1.57746849523925</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.801345785488575</v>
@@ -6649,7 +6499,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.60620854991408</v>
+        <v>1.583523691195273</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.620034025574826</v>
@@ -6738,7 +6588,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.615313824033721</v>
+        <v>1.593424635863067</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.857278442859736</v>
@@ -6827,7 +6677,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.6472984982765</v>
+        <v>1.619605963069111</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.666311368361843</v>
@@ -6916,7 +6766,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.6585674877877</v>
+        <v>1.624532415407948</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.600017272720671</v>
@@ -7005,7 +6855,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.65435697045522</v>
+        <v>1.617634618866442</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.75315787898953</v>
@@ -7094,7 +6944,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.676516758288794</v>
+        <v>1.63720667065923</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.60167152970691</v>
@@ -7183,7 +7033,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.673510587013864</v>
+        <v>1.635014906092495</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.817915582282967</v>
@@ -7272,7 +7122,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.672297236449387</v>
+        <v>1.63356917759616</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.847336332736793</v>
@@ -7361,7 +7211,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.700846696102017</v>
+        <v>1.652211035308942</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.063278788532179</v>
@@ -7450,7 +7300,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.708865237350443</v>
+        <v>1.653489860239526</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.074556036525127</v>
@@ -7539,7 +7389,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.702551479121307</v>
+        <v>1.648175674464319</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.846798760693561</v>
@@ -7628,7 +7478,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.695352464044456</v>
+        <v>1.644376720415036</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.031643318740188</v>
@@ -7717,7 +7567,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.687910971111263</v>
+        <v>1.643314457497545</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.766605997554018</v>
@@ -7806,7 +7656,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.688275153959217</v>
+        <v>1.640196445258889</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.800831051553245</v>
@@ -7895,7 +7745,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.664172331099698</v>
+        <v>1.61662497668568</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.977691619164332</v>
@@ -7984,7 +7834,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.658185536741032</v>
+        <v>1.614469921753466</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.116211772005</v>
@@ -8073,7 +7923,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.666385461950413</v>
+        <v>1.621040418718763</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.907773851560916</v>
@@ -8162,7 +8012,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.669031037004407</v>
+        <v>1.624504895804729</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.757456712892048</v>
@@ -8251,7 +8101,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.676406361045004</v>
+        <v>1.633314740327911</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.903190305822152</v>
@@ -8340,7 +8190,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.666217433293844</v>
+        <v>1.625849097832531</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.0137946637775</v>
@@ -8429,7 +8279,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.659841375013338</v>
+        <v>1.618707599691215</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.771879629116456</v>
@@ -8518,7 +8368,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.660253014006748</v>
+        <v>1.619472577400426</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.962239048319064</v>
@@ -8607,7 +8457,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.658858456352687</v>
+        <v>1.620311823922637</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.78951331998056</v>
@@ -8696,7 +8546,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.629386046320892</v>
+        <v>1.598816297728109</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.790431390916366</v>
@@ -8785,7 +8635,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.638006309800268</v>
+        <v>1.609327641362585</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.722493829881131</v>
@@ -8874,7 +8724,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.651143372172991</v>
+        <v>1.627246771670859</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.580866661876148</v>
@@ -8963,7 +8813,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.653355136683349</v>
+        <v>1.631788761242873</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.793753224217006</v>
@@ -9052,7 +8902,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.657482887205484</v>
+        <v>1.631513764723992</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.755691133621478</v>
@@ -9141,7 +8991,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.661674855781428</v>
+        <v>1.641051714003248</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.498846505122192</v>
@@ -9230,7 +9080,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.65579839006689</v>
+        <v>1.638595787221556</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.624878009422911</v>
@@ -9319,7 +9169,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.646974153601937</v>
+        <v>1.62975731334867</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.597775330035069</v>
@@ -9408,7 +9258,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.620930043623751</v>
+        <v>1.611385301001033</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.704909405274264</v>
@@ -9497,7 +9347,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.616938965136743</v>
+        <v>1.608978913750021</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.849011869478373</v>
@@ -9586,7 +9436,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.610768498043678</v>
+        <v>1.596893056168176</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.618339054465461</v>
@@ -9675,7 +9525,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.602605500856992</v>
+        <v>1.586213970420248</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.677220484105365</v>
@@ -9764,7 +9614,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.606273963979291</v>
+        <v>1.59061971385924</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.796789218164867</v>
@@ -9853,7 +9703,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.597529257035763</v>
+        <v>1.582524918649014</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.674726891654166</v>
@@ -9942,7 +9792,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.622508389350267</v>
+        <v>1.600032766359024</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.862889141496071</v>
@@ -10031,7 +9881,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.622840611321974</v>
+        <v>1.601302460111822</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.942289371987554</v>
@@ -10120,7 +9970,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.61644076443857</v>
+        <v>1.596337291068762</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.645715581893319</v>
@@ -10209,7 +10059,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.617049283018469</v>
+        <v>1.591173829508874</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.561143381734454</v>
@@ -10298,7 +10148,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.592606897094717</v>
+        <v>1.565440292508713</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.800135549852513</v>
@@ -10387,7 +10237,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.583078306846383</v>
+        <v>1.558704042569958</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.596563566607981</v>
@@ -10476,7 +10326,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.578327679503332</v>
+        <v>1.552383838862079</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.854327973261116</v>
@@ -10565,7 +10415,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.59508360178218</v>
+        <v>1.563555921430801</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.572330687001771</v>
@@ -10654,7 +10504,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.58912135118928</v>
+        <v>1.561595666839556</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.61996343328913</v>
@@ -10743,7 +10593,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.614773652364228</v>
+        <v>1.573919111221684</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.112236132841566</v>
@@ -10832,7 +10682,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.60403292771278</v>
+        <v>1.56119304063054</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.723354118824135</v>
@@ -10921,7 +10771,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.606677148229073</v>
+        <v>1.572739912471378</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.022636791530893</v>
@@ -11010,7 +10860,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.619642833035791</v>
+        <v>1.582951294401631</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.052529495483197</v>
@@ -11099,7 +10949,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.605281538292921</v>
+        <v>1.572572853649417</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.905424226292369</v>
@@ -11188,7 +11038,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.602521678395599</v>
+        <v>1.567668061807065</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.790473946575023</v>
@@ -11474,7 +11324,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.550687946003406</v>
+        <v>1.529119544920512</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.00392179318521</v>
@@ -11563,7 +11413,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.55120807678436</v>
+        <v>1.52834611213767</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.677183818586434</v>
@@ -11652,7 +11502,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.555744533692685</v>
+        <v>1.529318756142217</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.725759875249386</v>
@@ -11741,7 +11591,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.55762206127723</v>
+        <v>1.529542251475007</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.771904599481041</v>
@@ -11830,7 +11680,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.566879256402898</v>
+        <v>1.534267172519402</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.830753642371226</v>
@@ -11919,7 +11769,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.598559796605303</v>
+        <v>1.568323340798662</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.849826642915146</v>
@@ -12008,7 +11858,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.601849201737449</v>
+        <v>1.57286856614237</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.083072252468549</v>
@@ -12097,7 +11947,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.605254573588713</v>
+        <v>1.572428740960184</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.139617040246804</v>
@@ -12186,7 +12036,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.625673613961911</v>
+        <v>1.585873721632608</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.231809483376212</v>
@@ -12275,7 +12125,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.624021700366857</v>
+        <v>1.579581506838922</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.243650181818253</v>
@@ -12364,7 +12214,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.614024588072368</v>
+        <v>1.56375478030109</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.007336818074736</v>
@@ -12453,7 +12303,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.614983789964126</v>
+        <v>1.560349159993597</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.010173864972773</v>
@@ -12542,7 +12392,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.613613980520786</v>
+        <v>1.550584853520588</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.418460610583318</v>
@@ -12631,7 +12481,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.612821616336746</v>
+        <v>1.542189459408984</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.089264798233057</v>
@@ -12720,7 +12570,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.623590698522348</v>
+        <v>1.545173376373203</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.304655898181624</v>
@@ -12809,7 +12659,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.621080609020729</v>
+        <v>1.543415351297404</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.292846563579742</v>
@@ -12898,7 +12748,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.612408266830806</v>
+        <v>1.535550794767025</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.39323347420942</v>
@@ -12987,7 +12837,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.616124670640383</v>
+        <v>1.539315932249244</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.34767829633041</v>
@@ -13076,7 +12926,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.629663207371465</v>
+        <v>1.54434054886574</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.682521003778515</v>
@@ -13165,7 +13015,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.621121391586793</v>
+        <v>1.540604559031284</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.9078988281506</v>
@@ -13254,7 +13104,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.617621931638256</v>
+        <v>1.536645702351746</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.923160816631778</v>
@@ -13343,7 +13193,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.61984845248765</v>
+        <v>1.528940936909377</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.858402223245494</v>
@@ -13432,7 +13282,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.620150212651151</v>
+        <v>1.534738631426739</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.792031582415971</v>
@@ -13521,7 +13371,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.620401373511249</v>
+        <v>1.53694005000209</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.774568390575032</v>
@@ -13610,7 +13460,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.626396289113053</v>
+        <v>1.544141732207228</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.159896118167076</v>
@@ -13699,7 +13549,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.633375875089795</v>
+        <v>1.550520711292393</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.685427282060045</v>
@@ -13788,7 +13638,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.641916110855401</v>
+        <v>1.552433778194209</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.766806332804231</v>
@@ -13877,7 +13727,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.650497123935814</v>
+        <v>1.560793410077486</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.985942378218386</v>
@@ -13966,7 +13816,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.653964585476703</v>
+        <v>1.566791157777384</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.159902038976892</v>
@@ -14055,7 +13905,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.661938004221576</v>
+        <v>1.572418493515517</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.038812102299562</v>
@@ -14144,7 +13994,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.664036782606052</v>
+        <v>1.578194592972624</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.912690195285899</v>
@@ -14233,7 +14083,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.688858194846465</v>
+        <v>1.59990481494232</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.760496905516208</v>
@@ -14322,7 +14172,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.683609520496503</v>
+        <v>1.594583053208684</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.104427878888434</v>
@@ -14411,7 +14261,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.680405289649461</v>
+        <v>1.591006104292132</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.152776885218545</v>
@@ -14500,7 +14350,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.675821056270421</v>
+        <v>1.585557665508046</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.321711972514021</v>
@@ -14589,7 +14439,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.67138407296366</v>
+        <v>1.58228194744066</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.345620487121687</v>
@@ -14678,7 +14528,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.677185499096096</v>
+        <v>1.603018926781663</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.29816638945658</v>
@@ -14767,7 +14617,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.687137463286228</v>
+        <v>1.605303920663755</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.118431090099218</v>
@@ -14856,7 +14706,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.687862529345453</v>
+        <v>1.599962121878206</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.399605662680642</v>
@@ -14945,7 +14795,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.681319138094298</v>
+        <v>1.596044402188924</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.063109798933988</v>
@@ -15034,7 +14884,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.665604301268418</v>
+        <v>1.588775250564351</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.885478612318485</v>
@@ -15123,7 +14973,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.64276184270545</v>
+        <v>1.589277029125971</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.591600876489996</v>
@@ -15212,7 +15062,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.626981792261313</v>
+        <v>1.58591550921485</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.727415638261447</v>
@@ -15301,7 +15151,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.627137942750296</v>
+        <v>1.583638668954177</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.588780975473264</v>
@@ -15390,7 +15240,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.622358712007218</v>
+        <v>1.579453785512145</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.620615378240899</v>
@@ -15479,7 +15329,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.617874277051069</v>
+        <v>1.575930724572406</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.70588234410334</v>
@@ -15568,7 +15418,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.609053022937791</v>
+        <v>1.564476697402853</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.794269905428824</v>
@@ -15657,7 +15507,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.590393350184647</v>
+        <v>1.551521909049406</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.77173432765227</v>
@@ -15746,7 +15596,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.572239971941455</v>
+        <v>1.536884471725962</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.618404123362561</v>
@@ -15835,7 +15685,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.569607047148881</v>
+        <v>1.527731817090283</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.81750747426118</v>
@@ -15924,7 +15774,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.563440971079331</v>
+        <v>1.51979206109892</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.7326154834217</v>
@@ -16013,7 +15863,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.555480537596962</v>
+        <v>1.50684647440849</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.830394708698337</v>
@@ -16102,7 +15952,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.551457352005435</v>
+        <v>1.50299739978119</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.734201506151959</v>
@@ -16191,7 +16041,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.552178675781381</v>
+        <v>1.508438744992173</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.660387335450672</v>
@@ -16280,7 +16130,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.544730689718797</v>
+        <v>1.50044989336794</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.56685554865499</v>
@@ -16369,7 +16219,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.551983659374313</v>
+        <v>1.503852113718719</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.725267456244532</v>
@@ -16458,7 +16308,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.573269610339371</v>
+        <v>1.511847547570189</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.485769711127767</v>
@@ -16547,7 +16397,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.559554415881581</v>
+        <v>1.49712136456092</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.904731826558244</v>
@@ -16636,7 +16486,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.543784219255333</v>
+        <v>1.487277912868495</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.768526385361449</v>
@@ -16725,7 +16575,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.553246694849004</v>
+        <v>1.494322733521072</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.639099232543443</v>
@@ -16814,7 +16664,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.55621322557022</v>
+        <v>1.49008748557867</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.761238539667102</v>
@@ -16903,7 +16753,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.553016552681993</v>
+        <v>1.489543440697391</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.70314155566644</v>
@@ -16992,7 +16842,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.581575045207765</v>
+        <v>1.511299339502285</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.414566078428349</v>
@@ -17081,7 +16931,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.601669581492586</v>
+        <v>1.529188124371464</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.956375079926844</v>
@@ -17170,7 +17020,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.621098573518063</v>
+        <v>1.549185837432312</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.847453329900012</v>
@@ -17259,7 +17109,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.619272675385387</v>
+        <v>1.552158408879728</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.889330209175255</v>
@@ -17348,7 +17198,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.61891454072493</v>
+        <v>1.563645523344666</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.304672134758837</v>
@@ -17437,7 +17287,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.608401126698927</v>
+        <v>1.552912779456953</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.25955538434382</v>
@@ -17723,7 +17573,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.534007735085775</v>
+        <v>1.483457104616789</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.193724482232102</v>
@@ -17812,7 +17662,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.539273224869554</v>
+        <v>1.484595351106666</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.922464427307809</v>
@@ -17901,7 +17751,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.526617588941051</v>
+        <v>1.469304393304252</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.791398289335294</v>
@@ -17990,7 +17840,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.511437239413444</v>
+        <v>1.457949702249455</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.937956887475385</v>
@@ -18079,7 +17929,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.518911474702547</v>
+        <v>1.465494776278184</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.182613790061383</v>
@@ -18168,7 +18018,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.529803045840155</v>
+        <v>1.479863841819867</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.099758931490808</v>
@@ -18257,7 +18107,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.530603503174659</v>
+        <v>1.480680866391545</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.050373891327939</v>
@@ -18346,7 +18196,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.506973590172706</v>
+        <v>1.466567558910634</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.649720384514954</v>
@@ -18435,7 +18285,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.508639531763345</v>
+        <v>1.469472319466872</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.903649176962462</v>
@@ -18524,7 +18374,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.506164854345646</v>
+        <v>1.468081681028309</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.659423057218725</v>
@@ -18613,7 +18463,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.512430041945361</v>
+        <v>1.47785427478626</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.621593970531714</v>
@@ -18702,7 +18552,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.502830812860788</v>
+        <v>1.470068537076497</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.854499572400073</v>
@@ -18791,7 +18641,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.50569140345143</v>
+        <v>1.470861444992779</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.996762354595302</v>
@@ -18880,7 +18730,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.501321280739152</v>
+        <v>1.462823611303287</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.705831927002339</v>
@@ -18969,7 +18819,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.496113648853069</v>
+        <v>1.444276635119301</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.710231101095658</v>
@@ -19058,7 +18908,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.495498117343202</v>
+        <v>1.446079345668577</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.640692506746381</v>
@@ -19147,7 +18997,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.496572855077902</v>
+        <v>1.445067988999091</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.953949942424447</v>
@@ -19236,7 +19086,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.500107172555061</v>
+        <v>1.447995052312733</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.953580765638197</v>
@@ -19325,7 +19175,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.518865928425051</v>
+        <v>1.458366802053992</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.881803553407539</v>
@@ -19414,7 +19264,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.516544921926964</v>
+        <v>1.450563094930673</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.946282194779267</v>
@@ -19503,7 +19353,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.513532721526028</v>
+        <v>1.445788268517327</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.868864052279111</v>
@@ -19592,7 +19442,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.509628095879526</v>
+        <v>1.446931826159044</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.943747803118602</v>
@@ -19681,7 +19531,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.523337653135808</v>
+        <v>1.457172794523527</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.722042375431402</v>
@@ -19770,7 +19620,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.536278565540641</v>
+        <v>1.462114165212333</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.732023756941338</v>
@@ -19859,7 +19709,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.539046889460145</v>
+        <v>1.461089775918315</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.977884024961675</v>
@@ -19948,7 +19798,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.533788674168847</v>
+        <v>1.450261681310341</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.898733538651279</v>
@@ -20037,7 +19887,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.54474776286746</v>
+        <v>1.455834943797765</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.647901134752346</v>
@@ -20126,7 +19976,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.550045746035652</v>
+        <v>1.461012373841496</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.644154168288094</v>
@@ -20215,7 +20065,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.554432079795448</v>
+        <v>1.472638294282927</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.700529953168995</v>
@@ -20304,7 +20154,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.566964986841308</v>
+        <v>1.489048047207765</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.09236934394055</v>
@@ -20393,7 +20243,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.571443876882489</v>
+        <v>1.491903308857611</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.219248273551352</v>
@@ -20482,7 +20332,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.567590713212607</v>
+        <v>1.490834555647473</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.083598169740756</v>
@@ -20571,7 +20421,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.566599428158586</v>
+        <v>1.490942019988097</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.02414250467726</v>
@@ -20660,7 +20510,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.567661473870251</v>
+        <v>1.499176051522384</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.116902142084684</v>
@@ -20749,7 +20599,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.570564294843882</v>
+        <v>1.50653465127885</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.207303602012917</v>
@@ -20838,7 +20688,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.5653897761064</v>
+        <v>1.500327545473438</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.081472349265383</v>
@@ -20927,7 +20777,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.562378499045227</v>
+        <v>1.494467018211006</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.085375935057293</v>
@@ -21016,7 +20866,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.577630716417818</v>
+        <v>1.508765876900062</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.598756780364622</v>
@@ -21105,7 +20955,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.57436899486285</v>
+        <v>1.508496992408276</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.020752079465217</v>
@@ -21194,7 +21044,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.573993128129479</v>
+        <v>1.508006570120231</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.012989059608497</v>
@@ -21283,7 +21133,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.584211057507476</v>
+        <v>1.520643636379385</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.284781310391008</v>
@@ -21372,7 +21222,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.595528988650944</v>
+        <v>1.546300683440909</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.357821496583098</v>
@@ -21461,7 +21311,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.592674398211547</v>
+        <v>1.54914263856211</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.207885663218444</v>
@@ -21550,7 +21400,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.593449344824523</v>
+        <v>1.543268881685794</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.584087598490089</v>
@@ -21639,7 +21489,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.596562405547203</v>
+        <v>1.5513943758121</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.307804296882166</v>
@@ -21728,7 +21578,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.601381674253223</v>
+        <v>1.557862873613621</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.316591925622125</v>
@@ -21817,7 +21667,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.605184338867379</v>
+        <v>1.558582993330954</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.512309376678168</v>
@@ -21906,7 +21756,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.599270658475476</v>
+        <v>1.558888498792369</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.267670786651945</v>
@@ -21995,7 +21845,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.597084464331112</v>
+        <v>1.556800168480605</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.37983072793857</v>
@@ -22084,7 +21934,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.594378475519392</v>
+        <v>1.552119939814966</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.13311432967068</v>
@@ -22173,7 +22023,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.600011909478886</v>
+        <v>1.55307262842167</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.465279876817821</v>
@@ -22262,7 +22112,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.602442295192708</v>
+        <v>1.558856029452203</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.514369709835517</v>
@@ -22351,7 +22201,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.589982631656445</v>
+        <v>1.543007211471136</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.331493835083586</v>
@@ -22440,7 +22290,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.595244061652815</v>
+        <v>1.543553163428166</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.34178510893116</v>
@@ -22529,7 +22379,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.595287192310723</v>
+        <v>1.543068458073163</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.238385345499856</v>
@@ -22618,7 +22468,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.592512204428057</v>
+        <v>1.541128513381974</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.445553552726305</v>
@@ -22707,7 +22557,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.590046861300221</v>
+        <v>1.535637200549347</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.00284381780783</v>
@@ -22796,7 +22646,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.58557144263638</v>
+        <v>1.521676261556794</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.260330197366692</v>
@@ -22885,7 +22735,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.575923241838995</v>
+        <v>1.509271398196778</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.168683800882242</v>
@@ -22974,7 +22824,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.566014138140639</v>
+        <v>1.495437441208928</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.113085288751334</v>
@@ -23063,7 +22913,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.561188071698429</v>
+        <v>1.487398670535396</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.103104746027177</v>
@@ -23152,7 +23002,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.561260507806517</v>
+        <v>1.484885475802158</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.960450409229784</v>
@@ -23241,7 +23091,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.563469636958974</v>
+        <v>1.483501836653525</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.849952336560947</v>
@@ -23330,7 +23180,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.553811345690781</v>
+        <v>1.470669894928902</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.979747951802438</v>
@@ -23419,7 +23269,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.545400486061914</v>
+        <v>1.46746301669527</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.934975464756025</v>
@@ -23508,7 +23358,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.542058874616368</v>
+        <v>1.464071210934156</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.722815671031811</v>
@@ -23597,7 +23447,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.549584889379165</v>
+        <v>1.461408474326841</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.478548440313847</v>
@@ -23686,7 +23536,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.542753747196668</v>
+        <v>1.457772340803351</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.66134307850222</v>
@@ -23972,7 +23822,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.325088381685252</v>
+        <v>1.294407139524021</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.098347488217501</v>
@@ -24061,7 +23911,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.327824258456781</v>
+        <v>1.291015036923165</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.074941743301548</v>
@@ -24150,7 +24000,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.336710134410865</v>
+        <v>1.297855266338543</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.015504731303066</v>
@@ -24239,7 +24089,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.330915937367799</v>
+        <v>1.291819002043518</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.014074079388712</v>
@@ -24328,7 +24178,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.340787405408823</v>
+        <v>1.304300217523717</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.078598697345301</v>
@@ -24417,7 +24267,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.344308120179046</v>
+        <v>1.306404578428782</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.150843319382023</v>
@@ -24506,7 +24356,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.335633591836786</v>
+        <v>1.294645844434689</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.176055527306102</v>
@@ -24595,7 +24445,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.338437271214431</v>
+        <v>1.301687099485821</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.186629301522451</v>
@@ -24684,7 +24534,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.36251455762177</v>
+        <v>1.319943647831972</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.024088322826308</v>
@@ -24773,7 +24623,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.347846603987861</v>
+        <v>1.306720981030197</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.133735272763464</v>
@@ -24862,7 +24712,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.339421979711139</v>
+        <v>1.295533496498485</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.12204712714736</v>
@@ -24951,7 +24801,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.358315473415856</v>
+        <v>1.305933197751204</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.037313814412307</v>
@@ -25040,7 +24890,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.362916129283464</v>
+        <v>1.314925977693254</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.164389203369308</v>
@@ -25129,7 +24979,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.347863860043227</v>
+        <v>1.296560427521063</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.04407778079867</v>
@@ -25218,7 +25068,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.376859064386555</v>
+        <v>1.311286957708865</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.102986268808999</v>
@@ -25307,7 +25157,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.371637659256943</v>
+        <v>1.312372774808319</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.089087894484252</v>
@@ -25396,7 +25246,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.365426298850563</v>
+        <v>1.304757525637702</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.092483488103855</v>
@@ -25485,7 +25335,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.379860568581265</v>
+        <v>1.313181753272527</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.055932641334776</v>
@@ -25574,7 +25424,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.368919339831477</v>
+        <v>1.307104783212552</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.031137306107528</v>
@@ -25663,7 +25513,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.341249639922256</v>
+        <v>1.287104384313404</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.071498229403561</v>
@@ -25752,7 +25602,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.339857395443466</v>
+        <v>1.287214623030834</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.054651097981507</v>
@@ -25841,7 +25691,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.358596404456654</v>
+        <v>1.305352028493546</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.121004557541019</v>
@@ -25930,7 +25780,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.344424793308001</v>
+        <v>1.290548532945417</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.04248775494283</v>
@@ -26019,7 +25869,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.346203501219824</v>
+        <v>1.294345032793432</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.129136033108093</v>
@@ -26108,7 +25958,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.364730191598505</v>
+        <v>1.302404229060944</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.961554851122585</v>
@@ -26197,7 +26047,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.359894823247787</v>
+        <v>1.302177297512723</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.098741271854446</v>
@@ -26286,7 +26136,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.367025870226689</v>
+        <v>1.306528725951636</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.105152031571002</v>
@@ -26375,7 +26225,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.380336357120958</v>
+        <v>1.308272870257233</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.208472503632667</v>
@@ -26464,7 +26314,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.369944243215102</v>
+        <v>1.303739538804208</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.02256431865692</v>
@@ -26553,7 +26403,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.363853708581899</v>
+        <v>1.295339725651184</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.160995189941593</v>
@@ -26642,7 +26492,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.339996999753148</v>
+        <v>1.284824357877927</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.062170267224821</v>
@@ -26731,7 +26581,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.342846416590742</v>
+        <v>1.292846406245237</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.026731595398226</v>
@@ -26820,7 +26670,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.341336723023258</v>
+        <v>1.291568649153476</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.06718879952026</v>
@@ -26909,7 +26759,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.350926212656532</v>
+        <v>1.289565075708086</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.889259246943093</v>
@@ -26998,7 +26848,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.362539068521782</v>
+        <v>1.304167331867135</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.9926083891282</v>
@@ -27087,7 +26937,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.352994711113901</v>
+        <v>1.291588537651918</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.073482733420975</v>
@@ -27176,7 +27026,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.350625611200956</v>
+        <v>1.292182534788507</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.027367444091456</v>
@@ -27265,7 +27115,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.354224876497892</v>
+        <v>1.297962673379958</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.000142268879834</v>
@@ -27354,7 +27204,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.35217702495005</v>
+        <v>1.295897118117031</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.957233819079393</v>
@@ -27443,7 +27293,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.351074296281466</v>
+        <v>1.292113448821725</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.054432090452002</v>
@@ -27532,7 +27382,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.333610786315319</v>
+        <v>1.282726580767211</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.01672128219781</v>
@@ -27621,7 +27471,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.305795591317207</v>
+        <v>1.263897354262689</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.045636125012257</v>
@@ -27710,7 +27560,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.319956115314206</v>
+        <v>1.282412424400703</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.062081970063878</v>
@@ -27799,7 +27649,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.320587860566242</v>
+        <v>1.278168886987287</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.102068329871467</v>
@@ -27888,7 +27738,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.349820236863522</v>
+        <v>1.30069801060719</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.034358405540557</v>
@@ -27977,7 +27827,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.349136027296785</v>
+        <v>1.298438637554536</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.050880037264882</v>
@@ -28066,7 +27916,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.341068625926552</v>
+        <v>1.290253628207172</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.035062018808421</v>
@@ -28155,7 +28005,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.344210095115285</v>
+        <v>1.293022415567549</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.166780467939991</v>
@@ -28244,7 +28094,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.32302099590545</v>
+        <v>1.278361588268198</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.086850873652615</v>
@@ -28333,7 +28183,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.324917446496098</v>
+        <v>1.27868117449651</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.08500218863988</v>
@@ -28422,7 +28272,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.334092992275997</v>
+        <v>1.285426032483845</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.072931657882837</v>
@@ -28511,7 +28361,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.333262530735181</v>
+        <v>1.278637409960395</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.040787560609117</v>
@@ -28600,7 +28450,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.340719651635826</v>
+        <v>1.285623637861776</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.066262372695137</v>
@@ -28689,7 +28539,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.337367249462376</v>
+        <v>1.283000825802245</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.049964135307742</v>
@@ -28778,7 +28628,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.347888428875427</v>
+        <v>1.296908826257492</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.156268224088046</v>
@@ -28867,7 +28717,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.359583416793896</v>
+        <v>1.304513779478357</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.125346754208397</v>
@@ -28956,7 +28806,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.392343234543239</v>
+        <v>1.332639203031904</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.964491667412571</v>
@@ -29045,7 +28895,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.380373112417247</v>
+        <v>1.317615727161447</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.010627106782386</v>
@@ -29134,7 +28984,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.371500534642041</v>
+        <v>1.31411420786989</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.026607506342416</v>
@@ -29223,7 +29073,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.370555491709014</v>
+        <v>1.315651255697804</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.043004411692158</v>
@@ -29312,7 +29162,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.374104509719277</v>
+        <v>1.321557883904406</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.028493462288014</v>
@@ -29401,7 +29251,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.337640596946524</v>
+        <v>1.290348556566467</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.090802629336838</v>
@@ -29490,7 +29340,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.347101633117197</v>
+        <v>1.298247241057404</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.146994724825162</v>
@@ -29579,7 +29429,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.375466125284506</v>
+        <v>1.324848449691019</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.999413486836886</v>
@@ -29668,7 +29518,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.366634673304034</v>
+        <v>1.317403063682926</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.088206347987534</v>
@@ -29757,7 +29607,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.365992091418984</v>
+        <v>1.317645207323453</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.046518664096036</v>
@@ -29846,7 +29696,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.364493222775343</v>
+        <v>1.324003013306327</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.074882387377504</v>
@@ -29935,7 +29785,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.337776075259101</v>
+        <v>1.300757325397649</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.096633606940146</v>
@@ -30221,7 +30071,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.578878218811929</v>
+        <v>1.55894413346251</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.136087970461309</v>
@@ -30310,7 +30160,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.585188044582394</v>
+        <v>1.56213149303698</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.895470496643031</v>
@@ -30399,7 +30249,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.587894464139352</v>
+        <v>1.561174777588306</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.978653046976422</v>
@@ -30488,7 +30338,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.599612817716113</v>
+        <v>1.574417105812466</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.119385200655973</v>
@@ -30577,7 +30427,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.606065407694923</v>
+        <v>1.576972359139384</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.801220103750802</v>
@@ -30666,7 +30516,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.625387531551073</v>
+        <v>1.600347206900747</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.252527382061024</v>
@@ -30755,7 +30605,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.620154918352449</v>
+        <v>1.593762503740882</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.843983223458974</v>
@@ -30844,7 +30694,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.625002678876589</v>
+        <v>1.601025996641957</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.137046072578599</v>
@@ -30933,7 +30783,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.629663419026913</v>
+        <v>1.60167225824532</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.892597725967826</v>
@@ -31022,7 +30872,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.611912748792569</v>
+        <v>1.590764836131338</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.118229315645509</v>
@@ -31111,7 +30961,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.596640835112709</v>
+        <v>1.578154332316809</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.986560620448975</v>
@@ -31200,7 +31050,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.609437206729275</v>
+        <v>1.588486997679383</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.932009848356927</v>
@@ -31289,7 +31139,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.598370505281974</v>
+        <v>1.580151542284519</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.794103015040768</v>
@@ -31378,7 +31228,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.589462849973059</v>
+        <v>1.567735916341964</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.875228075880252</v>
@@ -31467,7 +31317,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.58533880656745</v>
+        <v>1.558034479965679</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.995767364327136</v>
@@ -31556,7 +31406,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.591113743094264</v>
+        <v>1.565432544661246</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.861477318818078</v>
@@ -31645,7 +31495,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.584543723429792</v>
+        <v>1.560547818719741</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.843822784566122</v>
@@ -31734,7 +31584,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.586709348224558</v>
+        <v>1.559477841896264</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.979068492743354</v>
@@ -31823,7 +31673,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.578116378472074</v>
+        <v>1.547444699663161</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.903373531051129</v>
@@ -31912,7 +31762,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.574826738607562</v>
+        <v>1.540130886033425</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.758169307601408</v>
@@ -32001,7 +31851,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.560629234797559</v>
+        <v>1.522028408382291</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.879879112004286</v>
@@ -32090,7 +31940,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.565953324200388</v>
+        <v>1.518207700562397</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.769033224199757</v>
@@ -32179,7 +32029,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.56190919087238</v>
+        <v>1.518998060190944</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.985686971257778</v>
@@ -32268,7 +32118,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.551425215169578</v>
+        <v>1.513500119653623</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.868611074745332</v>
@@ -32357,7 +32207,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.567574773552719</v>
+        <v>1.523132247572761</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.853312470204353</v>
@@ -32446,7 +32296,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.585858369292222</v>
+        <v>1.53849161590175</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.43600933765463</v>
@@ -32535,7 +32385,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.577345712055703</v>
+        <v>1.524870401880537</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.039359612863401</v>
@@ -32624,7 +32474,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.584895933006211</v>
+        <v>1.53261549284839</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.250467108000676</v>
@@ -32713,7 +32563,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.590110085305338</v>
+        <v>1.540983666102971</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.4309303122773</v>
@@ -32802,7 +32652,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.596023589836597</v>
+        <v>1.548675754356785</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.39970064930998</v>
@@ -32891,7 +32741,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.596108319703878</v>
+        <v>1.552064649552612</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.394868454024991</v>
@@ -32980,7 +32830,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.61049169179227</v>
+        <v>1.567957529264459</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.319744683573587</v>
@@ -33069,7 +32919,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.61160380311677</v>
+        <v>1.56670399411453</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.315244886326771</v>
@@ -33158,7 +33008,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.61748956524975</v>
+        <v>1.576330046479257</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.136612788439319</v>
@@ -33247,7 +33097,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.627782360133338</v>
+        <v>1.590165162524478</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.172519074776723</v>
@@ -33336,7 +33186,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.598241434918261</v>
+        <v>1.572094600998881</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.716225539628652</v>
@@ -33425,7 +33275,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.606533731092889</v>
+        <v>1.589318938764907</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.793252753658743</v>
@@ -33514,7 +33364,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.591754136204423</v>
+        <v>1.583449009992448</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.585305721344465</v>
@@ -33603,7 +33453,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.599469054894787</v>
+        <v>1.586310520009641</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.751135616705914</v>
@@ -33692,7 +33542,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.591994395363225</v>
+        <v>1.586325048844005</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.725713892373599</v>
@@ -33781,7 +33631,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.583864146391588</v>
+        <v>1.579946863443617</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.608408018045402</v>
@@ -33870,7 +33720,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.580082020428218</v>
+        <v>1.581160998374427</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.822236994322179</v>
@@ -33959,7 +33809,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.556571569796689</v>
+        <v>1.560033177552161</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.775245999661855</v>
@@ -34048,7 +33898,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.561438212493003</v>
+        <v>1.557864361749418</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.726452400934164</v>
@@ -34137,7 +33987,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.565258139878041</v>
+        <v>1.562439475037347</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.755259168954937</v>
@@ -34226,7 +34076,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.559485709567898</v>
+        <v>1.556033647982271</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.533187455992628</v>
@@ -34315,7 +34165,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.550185241857657</v>
+        <v>1.546216739995895</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.77176757837851</v>
@@ -34404,7 +34254,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.541802163312558</v>
+        <v>1.542252112334585</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.849134554273843</v>
@@ -34493,7 +34343,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.535082846320323</v>
+        <v>1.536927435542693</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.762234539259115</v>
@@ -34582,7 +34432,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.524470337967639</v>
+        <v>1.515554777126287</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.544337409011675</v>
@@ -34671,7 +34521,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.527173944411677</v>
+        <v>1.511734746237623</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.662769571567031</v>
@@ -34760,7 +34610,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.534881543399475</v>
+        <v>1.508173925459542</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.614401128209275</v>
@@ -34849,7 +34699,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.538886338463807</v>
+        <v>1.502665920270879</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.775846991542887</v>
@@ -34938,7 +34788,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.546972049189418</v>
+        <v>1.509870638806427</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.678499551014667</v>
@@ -35027,7 +34877,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.534032737461329</v>
+        <v>1.493686311355275</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.690602950032116</v>
@@ -35116,7 +34966,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.535510713178581</v>
+        <v>1.492511218725294</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.635537517515841</v>
@@ -35205,7 +35055,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.549955052915049</v>
+        <v>1.502929254077307</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.775920208468697</v>
@@ -35294,7 +35144,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.549031314757394</v>
+        <v>1.502956965674778</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.664271869441012</v>
@@ -35383,7 +35233,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.541867140835758</v>
+        <v>1.500245892018545</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.763913147239015</v>
@@ -35472,7 +35322,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.538573056731281</v>
+        <v>1.492246051095587</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.688025953885491</v>
@@ -35561,7 +35411,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.547723090629457</v>
+        <v>1.497545936026145</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.628252220567129</v>
@@ -35650,7 +35500,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.54926128187856</v>
+        <v>1.494850962609035</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.589129995194249</v>
@@ -35739,7 +35589,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.555650586021573</v>
+        <v>1.498594488922283</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.677498458081445</v>
@@ -35828,7 +35678,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.563939453379404</v>
+        <v>1.501234734466851</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.753966728289449</v>
@@ -35917,7 +35767,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.569785362155582</v>
+        <v>1.513960078517579</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.550648526677743</v>
@@ -36006,7 +35856,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.590809744410177</v>
+        <v>1.526378126529809</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.834807889576476</v>
@@ -36095,7 +35945,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.583516748161834</v>
+        <v>1.523998053010404</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.563689760449309</v>
@@ -36184,7 +36034,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.584516004720365</v>
+        <v>1.530369577520963</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.497951213048297</v>
@@ -36470,7 +36320,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.525192701711489</v>
+        <v>1.529226503017174</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.86412360461128</v>
@@ -36559,7 +36409,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.518822633821599</v>
+        <v>1.522875227011989</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.738162812227243</v>
@@ -36648,7 +36498,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.51604110759405</v>
+        <v>1.520418336509368</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.3798742415411</v>
@@ -36737,7 +36587,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.512003237921698</v>
+        <v>1.520390845571806</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.849180603009984</v>
@@ -36826,7 +36676,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.508798070007032</v>
+        <v>1.512369343824084</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.616283795119219</v>
@@ -36915,7 +36765,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.531177500536377</v>
+        <v>1.54248485326523</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.853356443356188</v>
@@ -37004,7 +36854,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.523183975508044</v>
+        <v>1.521191737092805</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.455726828599347</v>
@@ -37093,7 +36943,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.533268346822454</v>
+        <v>1.534849221293395</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.958009649245413</v>
@@ -37182,7 +37032,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.533764285773338</v>
+        <v>1.534132622101102</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.75536224527043</v>
@@ -37271,7 +37121,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.52911249189267</v>
+        <v>1.532278496752995</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.780570738293819</v>
@@ -37360,7 +37210,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.525280270022485</v>
+        <v>1.520923540216054</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.516944098358474</v>
@@ -37449,7 +37299,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.534520788608683</v>
+        <v>1.53004578689146</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.577142603019457</v>
@@ -37538,7 +37388,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.532741305685394</v>
+        <v>1.532787259595653</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.85023461588588</v>
@@ -37627,7 +37477,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.538682028189893</v>
+        <v>1.533493705622694</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.749129733900703</v>
@@ -37716,7 +37566,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.557940567342923</v>
+        <v>1.547238757641791</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.706254033470356</v>
@@ -37805,7 +37655,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.573204274838373</v>
+        <v>1.562398121556649</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.67141054670143</v>
@@ -37894,7 +37744,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.589864011658823</v>
+        <v>1.576244180346638</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.562570423029552</v>
@@ -37983,7 +37833,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.591443239716699</v>
+        <v>1.57620878752756</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.881417154460693</v>
@@ -38072,7 +37922,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.610043709672709</v>
+        <v>1.582854558880975</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.722914275735111</v>
@@ -38161,7 +38011,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.626773949120698</v>
+        <v>1.59324634217606</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.622349266945673</v>
@@ -38250,7 +38100,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.621792097726719</v>
+        <v>1.583340937033092</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.518124765314869</v>
@@ -38339,7 +38189,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.631406908271718</v>
+        <v>1.587053911655787</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.474225215193649</v>
@@ -38428,7 +38278,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.636475313174919</v>
+        <v>1.589258923229941</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.70081348423718</v>
@@ -38517,7 +38367,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.636123174132193</v>
+        <v>1.585842729221588</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.720490659043806</v>
@@ -38606,7 +38456,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.663994733369656</v>
+        <v>1.603425129220172</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.72514613301547</v>
@@ -38695,7 +38545,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.700733358854247</v>
+        <v>1.630927102370179</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.059009850003349</v>
@@ -38784,7 +38634,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.680511730227401</v>
+        <v>1.60980016841243</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.956535888301953</v>
@@ -38873,7 +38723,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.679009498009871</v>
+        <v>1.606407734729931</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.0360818570282</v>
@@ -38962,7 +38812,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.68001907473242</v>
+        <v>1.614360774920978</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.890654366451177</v>
@@ -39051,7 +38901,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.678091449145735</v>
+        <v>1.609911696459469</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.835208816337877</v>
@@ -39140,7 +38990,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.65736071748248</v>
+        <v>1.594366203853844</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.881191771040281</v>
@@ -39229,7 +39079,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.660188998951088</v>
+        <v>1.596980113273101</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.816317243159924</v>
@@ -39318,7 +39168,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.672062300312999</v>
+        <v>1.597701015751595</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.121065379121219</v>
@@ -39407,7 +39257,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.675638838861527</v>
+        <v>1.605951331432079</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.627094970838835</v>
@@ -39496,7 +39346,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.64860446653154</v>
+        <v>1.590312179598795</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.951949187402381</v>
@@ -39585,7 +39435,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.647332752120146</v>
+        <v>1.591686281421288</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.069032431976996</v>
@@ -39674,7 +39524,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.65603054008567</v>
+        <v>1.609005239042442</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.858306781851336</v>
@@ -39763,7 +39613,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.642205260882546</v>
+        <v>1.600603294998883</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.867720221844924</v>
@@ -39852,7 +39702,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.631360994231659</v>
+        <v>1.596221893944367</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.800623236430943</v>
@@ -39941,7 +39791,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.594021035057104</v>
+        <v>1.568906496810818</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.805028444627728</v>
@@ -40030,7 +39880,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.590194289841586</v>
+        <v>1.566200786354538</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.61351027462169</v>
@@ -40119,7 +39969,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.603710185023594</v>
+        <v>1.580980811704761</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.745608255539101</v>
@@ -40208,7 +40058,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.601358768179658</v>
+        <v>1.582811292311362</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.790377139857583</v>
@@ -40297,7 +40147,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.591783885659194</v>
+        <v>1.572259103742451</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.783003663713736</v>
@@ -40386,7 +40236,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.592848206890872</v>
+        <v>1.568761051803483</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.635689652775453</v>
@@ -40475,7 +40325,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.596682063903987</v>
+        <v>1.576245516798432</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.637512209131554</v>
@@ -40564,7 +40414,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.591097540863666</v>
+        <v>1.569434873701616</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.658812018998116</v>
@@ -40653,7 +40503,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.575335196624684</v>
+        <v>1.560135716591055</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.780413543522531</v>
@@ -40742,7 +40592,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.563345655920978</v>
+        <v>1.551719631994274</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.683040929019792</v>
@@ -40831,7 +40681,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.559653342915031</v>
+        <v>1.546322550250865</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.55151491775023</v>
@@ -40920,7 +40770,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.541317259551673</v>
+        <v>1.527505702984735</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.748341641511305</v>
@@ -41009,7 +40859,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.548762790424017</v>
+        <v>1.531746144765413</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.711295134946251</v>
@@ -41098,7 +40948,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.557782115994308</v>
+        <v>1.538239365053683</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.621322385918205</v>
@@ -41187,7 +41037,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.574675212255016</v>
+        <v>1.548545537878509</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.63640021444518</v>
@@ -41276,7 +41126,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.570481540692734</v>
+        <v>1.542660332398573</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.867985763331872</v>
@@ -41365,7 +41215,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.563627800112795</v>
+        <v>1.537828496003773</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.534747924772595</v>
@@ -41454,7 +41304,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.564361373668788</v>
+        <v>1.536762184916597</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.719220225617392</v>
@@ -41543,7 +41393,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.534386404204654</v>
+        <v>1.505381314916338</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.748747329112246</v>
@@ -41632,7 +41482,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.531912288114564</v>
+        <v>1.50237252360624</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.7423316442177</v>
@@ -41721,7 +41571,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.524612243053825</v>
+        <v>1.49417249555372</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.671925098301227</v>
@@ -41810,7 +41660,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.530697637577708</v>
+        <v>1.493634502309219</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.736985957787601</v>
@@ -41899,7 +41749,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.51835069480855</v>
+        <v>1.47887584266693</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.679320099146249</v>
@@ -41988,7 +41838,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.53905317884265</v>
+        <v>1.488027118083182</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.700175771341507</v>
@@ -42077,7 +41927,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.531333640626699</v>
+        <v>1.477790346833313</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.589118565694099</v>
@@ -42166,7 +42016,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.558585231444899</v>
+        <v>1.498164253161927</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.456883505526745</v>
@@ -42255,7 +42105,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.565388329264565</v>
+        <v>1.500290772629211</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.609297042236128</v>
@@ -42344,7 +42194,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.536993103493023</v>
+        <v>1.474376031686404</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.53403608609214</v>
@@ -42433,7 +42283,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.526253233835013</v>
+        <v>1.46643732865328</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.465329996451696</v>
